--- a/benchmark.xlsx
+++ b/benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshi\Documents\Codes\MyGithub\TensorRT_quantization_demo_cifar10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFC7373-C15D-417E-87E6-4950F9710759}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BD8C80-CF08-45E6-B86B-685AEF596EA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1808" yWindow="1808" windowWidth="14399" windowHeight="7372" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -179,12 +179,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -197,6 +191,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,7 +481,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G3" sqref="G3:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -497,14 +497,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
@@ -530,74 +530,74 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="11">
         <v>0.28800000000000003</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="5">
         <v>0.78420000000000001</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="5">
         <v>0.86099999999999999</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="5">
         <v>0.86029999999999995</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="11">
         <v>0.86119999999999997</v>
       </c>
-      <c r="G3" s="6">
-        <v>0.86150000000000004</v>
+      <c r="G3" s="11">
+        <v>0.87809999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="10" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="5">
         <v>0.65159999999999996</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>86.11</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
@@ -620,68 +620,68 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="11">
         <v>0.86150000000000004</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="5">
         <v>0.86009999999999998</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="5">
         <v>0.86040000000000005</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="5">
         <v>0.86029999999999995</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="11">
         <v>0.86070000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="6"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="10" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="6"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="5">
         <v>0.86109999999999998</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="5">
         <v>0.86080000000000001</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="6"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="F10:F13"/>
     <mergeCell ref="F3:F6"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/benchmark.xlsx
+++ b/benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshi\Documents\Codes\MyGithub\TensorRT_quantization_demo_cifar10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BD8C80-CF08-45E6-B86B-685AEF596EA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F65BBC1-3C6F-4251-8BFE-7C73729FFE71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1808" yWindow="1808" windowWidth="14399" windowHeight="7372" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -189,14 +189,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,14 +497,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
@@ -533,7 +533,7 @@
       <c r="A3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="9">
         <v>0.28800000000000003</v>
       </c>
       <c r="C3" s="5">
@@ -545,25 +545,25 @@
       <c r="E3" s="5">
         <v>0.86029999999999995</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="9">
         <v>0.86119999999999997</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="9">
         <v>0.87809999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="8" t="s">
         <v>1</v>
       </c>
@@ -571,12 +571,12 @@
         <v>2</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="5">
         <v>0.65159999999999996</v>
       </c>
@@ -584,20 +584,20 @@
         <v>86.11</v>
       </c>
       <c r="E6" s="7"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
@@ -623,7 +623,7 @@
       <c r="A10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="9">
         <v>0.86150000000000004</v>
       </c>
       <c r="C10" s="5">
@@ -635,21 +635,21 @@
       <c r="E10" s="5">
         <v>0.86029999999999995</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="9">
         <v>0.86070000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="11"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="8" t="s">
         <v>1</v>
       </c>
@@ -657,11 +657,11 @@
         <v>2</v>
       </c>
       <c r="E12" s="8"/>
-      <c r="F12" s="11"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="5">
         <v>0.86109999999999998</v>
       </c>
@@ -669,19 +669,19 @@
         <v>0.86080000000000001</v>
       </c>
       <c r="E13" s="7"/>
-      <c r="F13" s="11"/>
+      <c r="F13" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="F3:F6"/>
     <mergeCell ref="G3:G6"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="F3:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/benchmark.xlsx
+++ b/benchmark.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshi\Documents\Codes\MyGithub\TensorRT_quantization_demo_cifar10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F65BBC1-3C6F-4251-8BFE-7C73729FFE71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49ED7C7A-5EB0-4CF2-8C97-154F778593F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,9 +48,6 @@
     <t>Image amount</t>
   </si>
   <si>
-    <t>top1 acc</t>
-  </si>
-  <si>
     <t>10+10+10+10</t>
   </si>
   <si>
@@ -61,6 +58,9 @@
   </si>
   <si>
     <t>IInt8MinMaxCalibrator</t>
+  </si>
+  <si>
+    <t>Top1 acc</t>
   </si>
 </sst>
 </file>
@@ -100,7 +100,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -121,26 +121,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -167,16 +147,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -192,11 +166,11 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,7 +455,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G6"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -497,182 +471,184 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="A1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="9">
+      <c r="A3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="7">
         <v>0.28800000000000003</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>0.78420000000000001</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>0.86099999999999999</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>0.86029999999999995</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="7">
         <v>0.86119999999999997</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="7">
         <v>0.87809999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4" s="10"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="10"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="8" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="10"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="5">
+      <c r="A6" s="9"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="3">
         <v>0.65159999999999996</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <v>86.11</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="9">
+      <c r="B10" s="7">
         <v>0.86150000000000004</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <v>0.86009999999999998</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>0.86040000000000005</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="3">
         <v>0.86029999999999995</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="7">
         <v>0.86070000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" s="10"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="9"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" s="10"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="8" t="s">
+      <c r="A12" s="9"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" s="10"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="5">
+      <c r="A13" s="9"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="3">
         <v>0.86109999999999998</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="3">
         <v>0.86080000000000001</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="9"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A8:F8"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="F10:F13"/>
@@ -680,8 +656,6 @@
     <mergeCell ref="G3:G6"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="B3:B6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/benchmark.xlsx
+++ b/benchmark.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshi\Documents\Codes\MyGithub\TensorRT_quantization_demo_cifar10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49ED7C7A-5EB0-4CF2-8C97-154F778593F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45048E91-094F-402D-B620-5E45B0272BF0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>fp32</t>
   </si>
@@ -36,24 +37,9 @@
     <t>30 images</t>
   </si>
   <si>
-    <t>10 images</t>
-  </si>
-  <si>
-    <t>10+10+10 images</t>
-  </si>
-  <si>
-    <t>10+10 images</t>
-  </si>
-  <si>
     <t>Image amount</t>
   </si>
   <si>
-    <t>10+10+10+10</t>
-  </si>
-  <si>
-    <t>Whole testset</t>
-  </si>
-  <si>
     <t>IInt8EntropyCalibrator2</t>
   </si>
   <si>
@@ -61,6 +47,57 @@
   </si>
   <si>
     <t>Top1 acc</t>
+  </si>
+  <si>
+    <t>10 images / BS=10</t>
+  </si>
+  <si>
+    <t>10+10 images / BS=20</t>
+  </si>
+  <si>
+    <t>10+10+10 images / BS=30</t>
+  </si>
+  <si>
+    <t>10+10+10+10 / BS=40</t>
+  </si>
+  <si>
+    <t>20 images / BS=20</t>
+  </si>
+  <si>
+    <t>30 images / BS=30</t>
+  </si>
+  <si>
+    <t>Whole testset / BS=40</t>
+  </si>
+  <si>
+    <t>Total images / Batchsize</t>
+  </si>
+  <si>
+    <t>FP32</t>
+  </si>
+  <si>
+    <t>Accuracy (%)</t>
+  </si>
+  <si>
+    <t>10 / 10</t>
+  </si>
+  <si>
+    <t>20 / 10</t>
+  </si>
+  <si>
+    <t>30 / 10</t>
+  </si>
+  <si>
+    <t>40 / 10</t>
+  </si>
+  <si>
+    <t>20 / 20</t>
+  </si>
+  <si>
+    <t>30 / 30</t>
+  </si>
+  <si>
+    <t>40 / 40</t>
   </si>
 </sst>
 </file>
@@ -147,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -163,15 +200,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -187,6 +235,1127 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>ResNet18</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>PTQ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> on Cifar10</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy (%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10 / 10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20 / 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30 / 10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40 / 10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20 / 20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30 / 30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40 / 40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>FP32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>28.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.73</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59.68</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78.42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>86.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>86.03</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87.81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B754-4AB4-9C95-8265B804B054}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="474216088"/>
+        <c:axId val="474214120"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="474216088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Total</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t> images / Batch size</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="474214120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="474214120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Accruacy</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t> (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="474216088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>411956</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>78582</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>450056</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>107157</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFDCA937-C6C3-4224-9306-639C0A370EDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -454,60 +1623,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="13.19921875" customWidth="1"/>
-    <col min="2" max="2" width="13.86328125" customWidth="1"/>
-    <col min="3" max="3" width="16.9296875" customWidth="1"/>
-    <col min="4" max="4" width="17.1328125" customWidth="1"/>
-    <col min="5" max="5" width="15.796875" customWidth="1"/>
-    <col min="6" max="6" width="13.1328125" customWidth="1"/>
+    <col min="2" max="2" width="18.265625" customWidth="1"/>
+    <col min="3" max="3" width="21.06640625" customWidth="1"/>
+    <col min="4" max="4" width="24.59765625" customWidth="1"/>
+    <col min="5" max="5" width="19.86328125" customWidth="1"/>
+    <col min="6" max="6" width="21.3984375" customWidth="1"/>
     <col min="7" max="7" width="12.73046875" customWidth="1"/>
     <col min="8" max="8" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="A1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="7">
+      <c r="A3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="9">
         <v>0.28800000000000003</v>
       </c>
       <c r="C3" s="3">
@@ -519,25 +1688,25 @@
       <c r="E3" s="3">
         <v>0.86029999999999995</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="9">
         <v>0.86119999999999997</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="9">
         <v>0.87809999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4" s="9"/>
-      <c r="B4" s="7"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="9"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="6" t="s">
         <v>1</v>
       </c>
@@ -545,12 +1714,12 @@
         <v>2</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="9"/>
-      <c r="B6" s="7"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="3">
         <v>0.65159999999999996</v>
       </c>
@@ -558,46 +1727,46 @@
         <v>86.11</v>
       </c>
       <c r="E6" s="5"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="A8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="7">
+      <c r="B10" s="9">
         <v>0.86150000000000004</v>
       </c>
       <c r="C10" s="3">
@@ -609,33 +1778,33 @@
       <c r="E10" s="3">
         <v>0.86029999999999995</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="9">
         <v>0.86070000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" s="9"/>
-      <c r="B11" s="7"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="7"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" s="9"/>
-      <c r="B12" s="7"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="6" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" s="9"/>
-      <c r="B13" s="7"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="3">
         <v>0.86109999999999998</v>
       </c>
@@ -643,21 +1812,127 @@
         <v>0.86080000000000001</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="7"/>
+      <c r="F13" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="F10:F13"/>
     <mergeCell ref="F3:F6"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F480DD-467E-47CB-960C-785F9BCD2A29}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="21.796875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.9296875" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="10">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="13">
+        <v>30.73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="13">
+        <v>59.68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="13">
+        <v>67.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="13">
+        <v>78.42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="13">
+        <v>86.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="13">
+        <v>86.03</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="13">
+        <v>87.81</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>